--- a/Data/PL_site_2006_2018/Transfer information 2007-2018.xlsx
+++ b/Data/PL_site_2006_2018/Transfer information 2007-2018.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tung/Dropbox/DSE/Applied Machine Learning/Project/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tung\Dropbox\DSE\Applied Machine Learning\Project\Data\PL_site_2006_2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBDF69D1-F04C-0648-97CC-DC5245C27A98}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188955D7-6614-4F59-8972-5EA10DEAB2A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14300" xr2:uid="{8AD2CA2A-780E-604A-92E5-3244652A5E91}"/>
+    <workbookView xWindow="75" yWindow="465" windowWidth="25440" windowHeight="14295" xr2:uid="{8AD2CA2A-780E-604A-92E5-3244652A5E91}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="787" uniqueCount="55">
   <si>
     <t>Club</t>
   </si>
@@ -51,64 +50,7 @@
     <t>Departures</t>
   </si>
   <si>
-    <t>Manchester City</t>
-  </si>
-  <si>
-    <t>Chelsea FC</t>
-  </si>
-  <si>
-    <t>Everton FC</t>
-  </si>
-  <si>
-    <t>Manchester United</t>
-  </si>
-  <si>
-    <t>Liverpool FC</t>
-  </si>
-  <si>
-    <t>Arsenal FC</t>
-  </si>
-  <si>
-    <t>Tottenham Hotspur</t>
-  </si>
-  <si>
-    <t>Leicester City</t>
-  </si>
-  <si>
-    <t>Swansea City</t>
-  </si>
-  <si>
-    <t>Watford FC</t>
-  </si>
-  <si>
-    <t>Brighton &amp; Hove Albion</t>
-  </si>
-  <si>
-    <t>Southampton FC</t>
-  </si>
-  <si>
-    <t>Stoke City</t>
-  </si>
-  <si>
-    <t>West Ham United</t>
-  </si>
-  <si>
-    <t>Huddersfield Town</t>
-  </si>
-  <si>
-    <t>West Bromwich Albion</t>
-  </si>
-  <si>
     <t>Crystal Palace</t>
-  </si>
-  <si>
-    <t>Newcastle United</t>
-  </si>
-  <si>
-    <t>Burnley FC</t>
-  </si>
-  <si>
-    <t>AFC Bournemouth</t>
   </si>
   <si>
     <t>England Premier League</t>
@@ -117,61 +59,142 @@
     <t>Season</t>
   </si>
   <si>
-    <t>Middlesbrough FC</t>
-  </si>
-  <si>
-    <t>Sunderland AFC</t>
-  </si>
-  <si>
-    <t>Hull City</t>
-  </si>
-  <si>
     <t>Aston Villa</t>
   </si>
   <si>
-    <t>Norwich City</t>
+    <t>Blackburn</t>
   </si>
   <si>
-    <t>Queens Park Rangers</t>
+    <t>Chelsea</t>
   </si>
   <si>
-    <t>Cardiff City</t>
+    <t>Everton</t>
   </si>
   <si>
-    <t>Fulham FC</t>
+    <t>Southampton</t>
   </si>
   <si>
-    <t>Reading FC</t>
+    <t xml:space="preserve">Liverpool </t>
   </si>
   <si>
-    <t>Wigan Athletic</t>
+    <t xml:space="preserve">Arsenal </t>
   </si>
   <si>
-    <t>Blackburn Rovers</t>
+    <t xml:space="preserve">Watford </t>
   </si>
   <si>
-    <t>Bolton Wanderers</t>
+    <t xml:space="preserve">Burnley </t>
   </si>
   <si>
-    <t>Wolverhampton Wanderers</t>
+    <t xml:space="preserve">Middlesbrough </t>
   </si>
   <si>
-    <t>Birmingham City</t>
+    <t xml:space="preserve">Fulham </t>
   </si>
   <si>
-    <t>Blackpool FC</t>
+    <t xml:space="preserve">Reading </t>
   </si>
   <si>
-    <t>Portsmouth FC</t>
+    <t xml:space="preserve">Blackpool </t>
   </si>
   <si>
-    <t>Derby County</t>
+    <t xml:space="preserve">Portsmouth </t>
   </si>
   <si>
-    <t>Charlton Athletic</t>
+    <t>Bournemouth</t>
   </si>
   <si>
-    <t>Sheffield United</t>
+    <t>QPR</t>
+  </si>
+  <si>
+    <t>Man Utd</t>
+  </si>
+  <si>
+    <t>Newcastle</t>
+  </si>
+  <si>
+    <t>Spurs</t>
+  </si>
+  <si>
+    <t>Sunderland</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Leicester  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Swansea  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stoke  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hull  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norwich  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiff  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Birmingham  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Man City  </t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Sheffield Utd</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Ham  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Wolves</t>
+  </si>
+  <si>
+    <t>Bolton</t>
+  </si>
+  <si>
+    <t>Wigan</t>
+  </si>
+  <si>
+    <t>Charlton</t>
+  </si>
+  <si>
+    <t>Derby</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Brom  </t>
+  </si>
+  <si>
+    <t>Huddersfield</t>
+  </si>
+  <si>
+    <t>Wolves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chelsea </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Everton </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newcastle </t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Ham </t>
+  </si>
+  <si>
+    <t>Man City</t>
+  </si>
+  <si>
+    <t>Birmingham</t>
+  </si>
+  <si>
+    <t>West Brom</t>
   </si>
 </sst>
 </file>
@@ -218,7 +241,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -231,6 +254,9 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Currency" xfId="1" builtinId="4"/>
@@ -546,26 +572,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB80064-7A33-8A47-9E2B-1E785BECD33E}">
-  <dimension ref="A1:I241"/>
+  <dimension ref="A1:I261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:H1"/>
+      <selection activeCell="I1" sqref="I1:I1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3" t="s">
@@ -587,18 +613,18 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2018</v>
       </c>
       <c r="B2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D2" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E2" s="2">
         <v>361.95</v>
@@ -614,18 +640,18 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2018</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E3" s="2">
         <v>297.08</v>
@@ -640,18 +666,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2018</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E4" s="2">
         <v>231.65</v>
@@ -666,18 +692,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2018</v>
       </c>
       <c r="B5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E5" s="2">
         <v>226.18</v>
@@ -692,18 +718,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2018</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C6" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E6" s="2">
         <v>198.22</v>
@@ -718,18 +744,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2018</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E7" s="2">
         <v>174.25</v>
@@ -744,18 +770,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2018</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C8" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E8" s="2">
         <v>138.51</v>
@@ -770,18 +796,18 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>2018</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E9" s="2">
         <v>100.14</v>
@@ -796,18 +822,18 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>2018</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D10" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E10" s="2">
         <v>83.66</v>
@@ -822,18 +848,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2018</v>
       </c>
       <c r="B11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E11" s="2">
         <v>81.400000000000006</v>
@@ -848,18 +874,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2018</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="D12" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E12" s="2">
         <v>72.39</v>
@@ -874,18 +900,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2018</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D13" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E13" s="2">
         <v>69.83</v>
@@ -900,18 +926,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2018</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C14" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E14" s="2">
         <v>65.78</v>
@@ -926,18 +952,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2018</v>
       </c>
       <c r="B15" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C15" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E15" s="2">
         <v>64.75</v>
@@ -952,18 +978,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>2018</v>
       </c>
       <c r="B16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="C16" t="s">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E16" s="2">
         <v>64.7</v>
@@ -978,18 +1004,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>2018</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C17" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D17" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E17" s="2">
         <v>60.99</v>
@@ -1004,18 +1030,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2018</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C18" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D18" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E18" s="2">
         <v>55.8</v>
@@ -1030,18 +1056,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2018</v>
       </c>
       <c r="B19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C19" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E19" s="2">
         <v>50.5</v>
@@ -1056,18 +1082,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2018</v>
       </c>
       <c r="B20" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C20" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D20" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E20" s="2">
         <v>40.74</v>
@@ -1082,18 +1108,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2018</v>
       </c>
       <c r="B21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C21" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D21" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E21" s="2">
         <v>39.1</v>
@@ -1108,18 +1134,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2017</v>
       </c>
       <c r="B22" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C22" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D22" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E22" s="2">
         <v>243.39</v>
@@ -1134,18 +1160,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2017</v>
       </c>
       <c r="B23" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D23" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E23" s="2">
         <v>210.9</v>
@@ -1160,18 +1186,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2017</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C24" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E24" s="2">
         <v>151.38999999999999</v>
@@ -1186,18 +1212,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2017</v>
       </c>
       <c r="B25" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C25" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D25" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E25" s="2">
         <v>128.82</v>
@@ -1212,18 +1238,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2017</v>
       </c>
       <c r="B26" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C26" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E26" s="2">
         <v>115.48</v>
@@ -1238,18 +1264,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2017</v>
       </c>
       <c r="B27" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C27" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D27" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E27" s="2">
         <v>104.42</v>
@@ -1264,18 +1290,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2017</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D28" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E28" s="2">
         <v>97.93</v>
@@ -1290,18 +1316,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2017</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C29" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D29" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E29" s="2">
         <v>95.3</v>
@@ -1316,18 +1342,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>2017</v>
       </c>
       <c r="B30" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C30" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E30" s="2">
         <v>95.19</v>
@@ -1342,18 +1368,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2017</v>
       </c>
       <c r="B31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E31" s="2">
         <v>91.09</v>
@@ -1368,18 +1394,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2017</v>
       </c>
       <c r="B32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E32" s="2">
         <v>79.739999999999995</v>
@@ -1394,18 +1420,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2017</v>
       </c>
       <c r="B33" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C33" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D33" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E33" s="2">
         <v>78.55</v>
@@ -1420,18 +1446,18 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2017</v>
       </c>
       <c r="B34" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D34" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E34" s="2">
         <v>66.349999999999994</v>
@@ -1446,18 +1472,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>2017</v>
       </c>
       <c r="B35" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C35" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D35" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E35" s="2">
         <v>54.66</v>
@@ -1472,18 +1498,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>2017</v>
       </c>
       <c r="B36" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E36" s="2">
         <v>51.98</v>
@@ -1498,18 +1524,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2017</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E37" s="2">
         <v>47.77</v>
@@ -1524,18 +1550,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2017</v>
       </c>
       <c r="B38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C38" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E38" s="2">
         <v>46.39</v>
@@ -1550,18 +1576,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2017</v>
       </c>
       <c r="B39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E39" s="2">
         <v>45.6</v>
@@ -1576,18 +1602,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2017</v>
       </c>
       <c r="B40" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C40" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E40" s="2">
         <v>43.94</v>
@@ -1602,18 +1628,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>2017</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C41" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E41" s="2">
         <v>43.21</v>
@@ -1628,18 +1654,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>2016</v>
       </c>
       <c r="B42" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C42" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D42" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E42" s="2">
         <v>237.46</v>
@@ -1654,18 +1680,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>2016</v>
       </c>
       <c r="B43" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D43" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E43" s="2">
         <v>177.84</v>
@@ -1680,18 +1706,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>2016</v>
       </c>
       <c r="B44" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C44" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D44" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E44" s="2">
         <v>142.96</v>
@@ -1706,18 +1732,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>2016</v>
       </c>
       <c r="B45" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C45" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E45" s="2">
         <v>123.02</v>
@@ -1732,18 +1758,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>2016</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C46" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D46" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E46" s="2">
         <v>103.17</v>
@@ -1758,18 +1784,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>2016</v>
       </c>
       <c r="B47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E47" s="2">
         <v>95.22</v>
@@ -1784,18 +1810,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>2016</v>
       </c>
       <c r="B48" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C48" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D48" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E48" s="2">
         <v>80.94</v>
@@ -1810,18 +1836,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2016</v>
       </c>
       <c r="B49" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E49" s="2">
         <v>75.75</v>
@@ -1836,18 +1862,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2016</v>
       </c>
       <c r="B50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C50" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D50" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E50" s="2">
         <v>75.3</v>
@@ -1862,18 +1888,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2016</v>
       </c>
       <c r="B51" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C51" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D51" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E51" s="2">
         <v>68.510000000000005</v>
@@ -1888,18 +1914,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>2016</v>
       </c>
       <c r="B52" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C52" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E52" s="2">
         <v>62.83</v>
@@ -1914,18 +1940,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2016</v>
       </c>
       <c r="B53" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C53" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D53" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E53" s="2">
         <v>61.16</v>
@@ -1940,18 +1966,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>2016</v>
       </c>
       <c r="B54" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C54" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E54" s="2">
         <v>60.08</v>
@@ -1966,18 +1992,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>2016</v>
       </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C55" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E55" s="2">
         <v>56.89</v>
@@ -1992,18 +2018,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>2016</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E56" s="2">
         <v>55.75</v>
@@ -2018,18 +2044,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2016</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C57" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D57" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E57" s="2">
         <v>54.21</v>
@@ -2044,18 +2070,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>2016</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C58" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D58" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E58" s="2">
         <v>48.91</v>
@@ -2070,18 +2096,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2016</v>
       </c>
       <c r="B59" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C59" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D59" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E59" s="2">
         <v>32.83</v>
@@ -2096,18 +2122,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>2016</v>
       </c>
       <c r="B60" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D60" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E60" s="2">
         <v>30.21</v>
@@ -2122,18 +2148,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>2016</v>
       </c>
       <c r="B61" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D61" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E61" s="2">
         <v>24.86</v>
@@ -2148,18 +2174,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>2015</v>
       </c>
       <c r="B62" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D62" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E62" s="2">
         <v>222.7</v>
@@ -2174,18 +2200,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>2015</v>
       </c>
       <c r="B63" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C63" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D63" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E63" s="2">
         <v>172.63</v>
@@ -2200,18 +2226,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>2015</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C64" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E64" s="2">
         <v>156.97999999999999</v>
@@ -2226,18 +2252,18 @@
         <v>49</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>2015</v>
       </c>
       <c r="B65" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C65" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D65" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E65" s="2">
         <v>135.63999999999999</v>
@@ -2252,18 +2278,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>2015</v>
       </c>
       <c r="B66" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C66" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E66" s="2">
         <v>109.49</v>
@@ -2278,18 +2304,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>2015</v>
       </c>
       <c r="B67" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C67" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D67" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E67" s="2">
         <v>100.66</v>
@@ -2304,18 +2330,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>2015</v>
       </c>
       <c r="B68" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C68" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D68" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E68" s="2">
         <v>55.26</v>
@@ -2330,18 +2356,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>2015</v>
       </c>
       <c r="B69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C69" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D69" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E69" s="2">
         <v>54.98</v>
@@ -2356,18 +2382,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2015</v>
       </c>
       <c r="B70" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C70" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D70" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E70" s="2">
         <v>51.32</v>
@@ -2382,18 +2408,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>2015</v>
       </c>
       <c r="B71" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C71" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E71" s="2">
         <v>49.63</v>
@@ -2408,18 +2434,18 @@
         <v>39</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>2015</v>
       </c>
       <c r="B72" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C72" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E72" s="2">
         <v>47.34</v>
@@ -2434,18 +2460,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2015</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E73" s="2">
         <v>45.78</v>
@@ -2460,18 +2486,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2015</v>
       </c>
       <c r="B74" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C74" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D74" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E74" s="2">
         <v>40.07</v>
@@ -2486,18 +2512,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>2015</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C75" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D75" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E75" s="2">
         <v>35.659999999999997</v>
@@ -2512,18 +2538,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>2015</v>
       </c>
       <c r="B76" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C76" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D76" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E76" s="2">
         <v>28.37</v>
@@ -2538,18 +2564,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2015</v>
       </c>
       <c r="B77" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="C77" t="s">
-        <v>13</v>
+        <v>29</v>
       </c>
       <c r="D77" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E77" s="2">
         <v>26.06</v>
@@ -2564,18 +2590,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>2015</v>
       </c>
       <c r="B78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C78" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D78" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E78" s="2">
         <v>25.78</v>
@@ -2590,18 +2616,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>2015</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E79" s="2">
         <v>15.33</v>
@@ -2616,18 +2642,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>2015</v>
       </c>
       <c r="B80" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C80" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D80" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E80" s="2">
         <v>14.39</v>
@@ -2642,18 +2668,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>2015</v>
       </c>
       <c r="B81" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C81" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D81" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E81" s="2">
         <v>2.0499999999999998</v>
@@ -2668,18 +2694,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>2014</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C82" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D82" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E82" s="2">
         <v>148.6</v>
@@ -2694,18 +2720,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>2014</v>
       </c>
       <c r="B83" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C83" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D83" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E83" s="2">
         <v>138.94</v>
@@ -2720,18 +2746,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2014</v>
       </c>
       <c r="B84" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C84" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D84" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E84" s="2">
         <v>132.24</v>
@@ -2746,18 +2772,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>2014</v>
       </c>
       <c r="B85" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D85" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E85" s="2">
         <v>87.93</v>
@@ -2772,18 +2798,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>2014</v>
       </c>
       <c r="B86" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C86" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D86" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E86" s="2">
         <v>66.23</v>
@@ -2798,18 +2824,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2014</v>
       </c>
       <c r="B87" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C87" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E87" s="2">
         <v>56.15</v>
@@ -2824,7 +2850,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>2014</v>
       </c>
@@ -2835,7 +2861,7 @@
         <v>34</v>
       </c>
       <c r="D88" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E88" s="2">
         <v>52.23</v>
@@ -2850,18 +2876,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2014</v>
       </c>
       <c r="B89" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C89" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D89" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E89" s="2">
         <v>45.14</v>
@@ -2876,18 +2902,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>2014</v>
       </c>
       <c r="B90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D90" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E90" s="2">
         <v>38.659999999999997</v>
@@ -2902,18 +2928,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>2014</v>
       </c>
       <c r="B91" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="C91" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E91" s="2">
         <v>37.619999999999997</v>
@@ -2928,18 +2954,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2014</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D92" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E92" s="2">
         <v>36.25</v>
@@ -2954,18 +2980,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2014</v>
       </c>
       <c r="B93" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C93" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D93" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E93" s="2">
         <v>35.450000000000003</v>
@@ -2980,18 +3006,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>2014</v>
       </c>
       <c r="B94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D94" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E94" s="2">
         <v>34.26</v>
@@ -3006,18 +3032,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>2014</v>
       </c>
       <c r="B95" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C95" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E95" s="2">
         <v>33.630000000000003</v>
@@ -3032,18 +3058,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>2014</v>
       </c>
       <c r="B96" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C96" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E96" s="2">
         <v>30.45</v>
@@ -3058,18 +3084,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>2014</v>
       </c>
       <c r="B97" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E97" s="2">
         <v>27.36</v>
@@ -3084,18 +3110,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2014</v>
       </c>
       <c r="B98" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E98" s="2">
         <v>22.62</v>
@@ -3110,18 +3136,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2014</v>
       </c>
       <c r="B99" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C99" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E99" s="2">
         <v>17.899999999999999</v>
@@ -3136,18 +3162,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>2014</v>
       </c>
       <c r="B100" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C100" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E100" s="2">
         <v>7.98</v>
@@ -3162,18 +3188,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>2014</v>
       </c>
       <c r="B101" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C101" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D101" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E101" s="2">
         <v>4.33</v>
@@ -3188,18 +3214,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>2013</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C102" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D102" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E102" s="2">
         <v>125.06</v>
@@ -3214,18 +3240,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2013</v>
       </c>
       <c r="B103" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D103" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E103" s="2">
         <v>87.15</v>
@@ -3240,18 +3266,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>2013</v>
       </c>
       <c r="B104" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C104" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D104" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E104" s="2">
         <v>83.51</v>
@@ -3266,18 +3292,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>2013</v>
       </c>
       <c r="B105" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C105" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D105" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E105" s="2">
         <v>80.48</v>
@@ -3292,18 +3318,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>2013</v>
       </c>
       <c r="B106" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C106" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D106" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E106" s="2">
         <v>70.62</v>
@@ -3318,18 +3344,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>2013</v>
       </c>
       <c r="B107" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C107" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D107" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E107" s="2">
         <v>63.84</v>
@@ -3344,18 +3370,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>2013</v>
       </c>
       <c r="B108" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C108" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D108" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E108" s="2">
         <v>57.4</v>
@@ -3370,18 +3396,18 @@
         <v>46</v>
       </c>
     </row>
-    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>2013</v>
       </c>
       <c r="B109" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="C109" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D109" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E109" s="2">
         <v>47.31</v>
@@ -3396,18 +3422,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>2013</v>
       </c>
       <c r="B110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C110" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D110" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E110" s="2">
         <v>43.66</v>
@@ -3422,18 +3448,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>2013</v>
       </c>
       <c r="B111" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C111" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D111" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E111" s="2">
         <v>36.44</v>
@@ -3448,18 +3474,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>2013</v>
       </c>
       <c r="B112" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E112" s="2">
         <v>31.73</v>
@@ -3474,18 +3500,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>2013</v>
       </c>
       <c r="B113" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D113" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E113" s="2">
         <v>27.24</v>
@@ -3500,18 +3526,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>2013</v>
       </c>
       <c r="B114" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C114" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D114" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E114" s="2">
         <v>27</v>
@@ -3526,18 +3552,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>2013</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E115" s="2">
         <v>24.68</v>
@@ -3552,18 +3578,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>2013</v>
       </c>
       <c r="B116" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C116" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D116" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E116" s="2">
         <v>23.34</v>
@@ -3578,18 +3604,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>2013</v>
       </c>
       <c r="B117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C117" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E117" s="2">
         <v>12.63</v>
@@ -3604,18 +3630,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>2013</v>
       </c>
       <c r="B118" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C118" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D118" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E118" s="2">
         <v>12.33</v>
@@ -3630,18 +3656,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>2013</v>
       </c>
       <c r="B119" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C119" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D119" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E119" s="2">
         <v>12.01</v>
@@ -3656,18 +3682,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>2013</v>
       </c>
       <c r="B120" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C120" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D120" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E120" s="2">
         <v>11.4</v>
@@ -3682,18 +3708,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>2013</v>
       </c>
       <c r="B121" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C121" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D121" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E121" s="2">
         <v>5.7</v>
@@ -3708,18 +3734,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>2012</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C122" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D122" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E122" s="2">
         <v>109.95</v>
@@ -3734,18 +3760,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>2012</v>
       </c>
       <c r="B123" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C123" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D123" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E123" s="2">
         <v>103.8</v>
@@ -3760,18 +3786,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>2012</v>
       </c>
       <c r="B124" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C124" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D124" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E124" s="2">
         <v>75.84</v>
@@ -3786,18 +3812,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2012</v>
       </c>
       <c r="B125" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C125" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D125" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E125" s="2">
         <v>74.64</v>
@@ -3812,18 +3838,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2012</v>
       </c>
       <c r="B126" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D126" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E126" s="2">
         <v>71.02</v>
@@ -3838,18 +3864,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2012</v>
       </c>
       <c r="B127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C127" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D127" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E127" s="2">
         <v>32.21</v>
@@ -3864,18 +3890,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="128" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2012</v>
       </c>
       <c r="B128" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="C128" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="D128" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E128" s="2">
         <v>29.9</v>
@@ -3890,18 +3916,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2012</v>
       </c>
       <c r="B129" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C129" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D129" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E129" s="2">
         <v>29.7</v>
@@ -3916,18 +3942,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2012</v>
       </c>
       <c r="B130" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C130" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D130" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E130" s="2">
         <v>28.27</v>
@@ -3942,18 +3968,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2012</v>
       </c>
       <c r="B131" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C131" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E131" s="2">
         <v>23.43</v>
@@ -3968,18 +3994,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2012</v>
       </c>
       <c r="B132" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E132" s="2">
         <v>23.18</v>
@@ -3994,18 +4020,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="133" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2012</v>
       </c>
       <c r="B133" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C133" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D133" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E133" s="2">
         <v>20.92</v>
@@ -4020,18 +4046,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="134" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2012</v>
       </c>
       <c r="B134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C134" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D134" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E134" s="2">
         <v>17.78</v>
@@ -4046,18 +4072,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2012</v>
       </c>
       <c r="B135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D135" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E135" s="2">
         <v>17.39</v>
@@ -4072,18 +4098,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2012</v>
       </c>
       <c r="B136" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="C136" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="D136" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E136" s="2">
         <v>14.65</v>
@@ -4098,18 +4124,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2012</v>
       </c>
       <c r="B137" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C137" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D137" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E137" s="2">
         <v>14.11</v>
@@ -4124,18 +4150,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2012</v>
       </c>
       <c r="B138" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="C138" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D138" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E138" s="2">
         <v>13.74</v>
@@ -4150,18 +4176,18 @@
         <v>34</v>
       </c>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2012</v>
       </c>
       <c r="B139" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C139" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D139" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E139" s="2">
         <v>10.77</v>
@@ -4176,18 +4202,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2012</v>
       </c>
       <c r="B140" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C140" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D140" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E140" s="2">
         <v>10.35</v>
@@ -4202,18 +4228,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="141" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2012</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D141" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E141" s="2">
         <v>8.2100000000000009</v>
@@ -4228,18 +4254,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2011</v>
       </c>
       <c r="B142" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C142" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D142" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E142" s="2">
         <v>209.31</v>
@@ -4254,18 +4280,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2011</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C143" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D143" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E143" s="2">
         <v>138.51</v>
@@ -4280,18 +4306,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2011</v>
       </c>
       <c r="B144" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C144" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D144" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E144" s="2">
         <v>111.18</v>
@@ -4306,18 +4332,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2011</v>
       </c>
       <c r="B145" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E145" s="2">
         <v>42.64</v>
@@ -4332,18 +4358,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2011</v>
       </c>
       <c r="B146" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D146" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E146" s="2">
         <v>33.4</v>
@@ -4358,18 +4384,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2011</v>
       </c>
       <c r="B147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C147" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D147" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E147" s="2">
         <v>33.17</v>
@@ -4384,18 +4410,18 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2011</v>
       </c>
       <c r="B148" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C148" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D148" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E148" s="2">
         <v>30.32</v>
@@ -4410,18 +4436,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2011</v>
       </c>
       <c r="B149" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C149" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D149" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E149" s="2">
         <v>29.18</v>
@@ -4436,18 +4462,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2011</v>
       </c>
       <c r="B150" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C150" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D150" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E150" s="2">
         <v>26.22</v>
@@ -4462,18 +4488,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2011</v>
       </c>
       <c r="B151" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C151" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D151" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E151" s="2">
         <v>24.05</v>
@@ -4488,7 +4514,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2011</v>
       </c>
@@ -4499,7 +4525,7 @@
         <v>40</v>
       </c>
       <c r="D152" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E152" s="2">
         <v>22.97</v>
@@ -4514,18 +4540,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2011</v>
       </c>
       <c r="B153" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C153" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D153" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E153" s="2">
         <v>18.04</v>
@@ -4540,18 +4566,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2011</v>
       </c>
       <c r="B154" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C154" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D154" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E154" s="2">
         <v>15.94</v>
@@ -4566,18 +4592,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2011</v>
       </c>
       <c r="B155" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C155" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D155" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E155" s="2">
         <v>15.77</v>
@@ -4592,18 +4618,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2011</v>
       </c>
       <c r="B156" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C156" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D156" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E156" s="2">
         <v>13</v>
@@ -4618,18 +4644,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2011</v>
       </c>
       <c r="B157" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C157" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D157" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E157" s="2">
         <v>12.6</v>
@@ -4644,18 +4670,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2011</v>
       </c>
       <c r="B158" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="C158" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D158" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E158" s="2">
         <v>6.53</v>
@@ -4670,18 +4696,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2011</v>
       </c>
       <c r="B159" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C159" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D159" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E159" s="2">
         <v>6.15</v>
@@ -4696,18 +4722,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2011</v>
       </c>
       <c r="B160" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C160" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E160" s="2">
         <v>5.76</v>
@@ -4722,18 +4748,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2011</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D161" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E161" s="2">
         <v>1.94</v>
@@ -4748,18 +4774,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2010</v>
       </c>
       <c r="B162" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C162" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D162" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E162" s="2">
         <v>167.92</v>
@@ -4774,18 +4800,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2010</v>
       </c>
       <c r="B163" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E163" s="2">
         <v>53.47</v>
@@ -4800,18 +4826,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>2010</v>
       </c>
       <c r="B164" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C164" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D164" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E164" s="2">
         <v>52.55</v>
@@ -4826,18 +4852,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>2010</v>
       </c>
       <c r="B165" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C165" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D165" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E165" s="2">
         <v>49.59</v>
@@ -4852,18 +4878,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>2010</v>
       </c>
       <c r="B166" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C166" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D166" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E166" s="2">
         <v>45.94</v>
@@ -4878,18 +4904,18 @@
         <v>37</v>
       </c>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>2010</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C167" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D167" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E167" s="2">
         <v>34.200000000000003</v>
@@ -4904,18 +4930,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>2010</v>
       </c>
       <c r="B168" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D168" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E168" s="2">
         <v>31.24</v>
@@ -4930,18 +4956,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>2010</v>
       </c>
       <c r="B169" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C169" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D169" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E169" s="2">
         <v>29.7</v>
@@ -4956,18 +4982,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>2010</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D170" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E170" s="2">
         <v>26.56</v>
@@ -4982,18 +5008,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>2010</v>
       </c>
       <c r="B171" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C171" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D171" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E171" s="2">
         <v>24.68</v>
@@ -5008,18 +5034,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>2010</v>
       </c>
       <c r="B172" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C172" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D172" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E172" s="2">
         <v>22.86</v>
@@ -5034,7 +5060,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>2010</v>
       </c>
@@ -5045,7 +5071,7 @@
         <v>40</v>
       </c>
       <c r="D173" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E173" s="2">
         <v>22.18</v>
@@ -5060,18 +5086,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>2010</v>
       </c>
       <c r="B174" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C174" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D174" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E174" s="2">
         <v>21.02</v>
@@ -5086,18 +5112,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>2010</v>
       </c>
       <c r="B175" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C175" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D175" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E175" s="2">
         <v>16.93</v>
@@ -5112,18 +5138,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>2010</v>
       </c>
       <c r="B176" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="C176" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D176" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E176" s="2">
         <v>15.44</v>
@@ -5138,18 +5164,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>2010</v>
       </c>
       <c r="B177" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C177" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E177" s="2">
         <v>15.14</v>
@@ -5164,18 +5190,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>2010</v>
       </c>
       <c r="B178" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C178" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D178" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E178" s="2">
         <v>13.68</v>
@@ -5190,18 +5216,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>2010</v>
       </c>
       <c r="B179" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C179" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D179" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E179" s="2">
         <v>13.68</v>
@@ -5216,18 +5242,18 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>2010</v>
       </c>
       <c r="B180" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C180" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D180" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E180" s="2">
         <v>12.04</v>
@@ -5242,18 +5268,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>2010</v>
       </c>
       <c r="B181" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C181" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D181" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E181" s="2">
         <v>8.1</v>
@@ -5268,18 +5294,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>2009</v>
       </c>
       <c r="B182" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C182" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D182" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E182" s="2">
         <v>179.38</v>
@@ -5294,18 +5320,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>2009</v>
       </c>
       <c r="B183" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C183" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D183" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E183" s="2">
         <v>162.38999999999999</v>
@@ -5320,18 +5346,18 @@
         <v>40</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>2009</v>
       </c>
       <c r="B184" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C184" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D184" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E184" s="2">
         <v>81.45</v>
@@ -5346,18 +5372,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>2009</v>
       </c>
       <c r="B185" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E185" s="2">
         <v>63.73</v>
@@ -5372,18 +5398,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>2009</v>
       </c>
       <c r="B186" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D186" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E186" s="2">
         <v>51.59</v>
@@ -5398,18 +5424,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>2009</v>
       </c>
       <c r="B187" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C187" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D187" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E187" s="2">
         <v>45.77</v>
@@ -5424,18 +5450,18 @@
         <v>13</v>
       </c>
     </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>2009</v>
       </c>
       <c r="B188" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C188" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D188" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E188" s="2">
         <v>40.1</v>
@@ -5450,18 +5476,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>2009</v>
       </c>
       <c r="B189" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="C189" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="D189" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E189" s="2">
         <v>38.700000000000003</v>
@@ -5476,18 +5502,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>2009</v>
       </c>
       <c r="B190" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C190" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D190" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E190" s="2">
         <v>37.75</v>
@@ -5502,18 +5528,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>2009</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C191" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D191" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E191" s="2">
         <v>34.770000000000003</v>
@@ -5528,18 +5554,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>2009</v>
       </c>
       <c r="B192" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C192" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D192" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E192" s="2">
         <v>32.15</v>
@@ -5554,18 +5580,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>2009</v>
       </c>
       <c r="B193" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C193" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D193" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E193" s="2">
         <v>30.61</v>
@@ -5580,18 +5606,18 @@
         <v>41</v>
       </c>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>2009</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D194" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E194" s="2">
         <v>28.59</v>
@@ -5606,18 +5632,18 @@
         <v>12</v>
       </c>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>2009</v>
       </c>
       <c r="B195" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C195" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="D195" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E195" s="2">
         <v>27.72</v>
@@ -5632,18 +5658,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>2009</v>
       </c>
       <c r="B196" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C196" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D196" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E196" s="2">
         <v>27.47</v>
@@ -5658,18 +5684,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>2009</v>
       </c>
       <c r="B197" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C197" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D197" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E197" s="2">
         <v>27.02</v>
@@ -5684,18 +5710,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>2009</v>
       </c>
       <c r="B198" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="C198" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D198" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E198" s="2">
         <v>20.46</v>
@@ -5710,18 +5736,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>2009</v>
       </c>
       <c r="B199" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C199" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D199" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E199" s="2">
         <v>18.239999999999998</v>
@@ -5736,18 +5762,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>2009</v>
       </c>
       <c r="B200" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C200" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D200" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E200" s="2">
         <v>14.59</v>
@@ -5762,18 +5788,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>2009</v>
       </c>
       <c r="B201" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C201" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D201" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E201" s="2">
         <v>13.32</v>
@@ -5788,18 +5814,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>2008</v>
       </c>
       <c r="B202" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C202" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D202" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E202" s="2">
         <v>117.99</v>
@@ -5814,18 +5840,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>2008</v>
       </c>
       <c r="B203" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C203" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D203" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E203" s="2">
         <v>107.33</v>
@@ -5840,18 +5866,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>2008</v>
       </c>
       <c r="B204" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C204" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D204" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E204" s="2">
         <v>103.4</v>
@@ -5866,18 +5892,18 @@
         <v>27</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>2008</v>
       </c>
       <c r="B205" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C205" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D205" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E205" s="2">
         <v>88.86</v>
@@ -5892,18 +5918,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>2008</v>
       </c>
       <c r="B206" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C206" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D206" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E206" s="2">
         <v>73.319999999999993</v>
@@ -5918,18 +5944,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>2008</v>
       </c>
       <c r="B207" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C207" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D207" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E207" s="2">
         <v>67.260000000000005</v>
@@ -5944,18 +5970,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>2008</v>
       </c>
       <c r="B208" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C208" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D208" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E208" s="2">
         <v>66.849999999999994</v>
@@ -5970,18 +5996,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>2008</v>
       </c>
       <c r="B209" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C209" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D209" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E209" s="2">
         <v>57.68</v>
@@ -5996,18 +6022,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>2008</v>
       </c>
       <c r="B210" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C210" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D210" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E210" s="2">
         <v>56.35</v>
@@ -6022,18 +6048,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211">
         <v>2008</v>
       </c>
       <c r="B211" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C211" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D211" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E211" s="2">
         <v>53.12</v>
@@ -6048,18 +6074,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212">
         <v>2008</v>
       </c>
       <c r="B212" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C212" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D212" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E212" s="2">
         <v>43.15</v>
@@ -6074,18 +6100,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213">
         <v>2008</v>
       </c>
       <c r="B213" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C213" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D213" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E213" s="2">
         <v>42.81</v>
@@ -6100,18 +6126,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214">
         <v>2008</v>
       </c>
       <c r="B214" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C214" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D214" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E214" s="2">
         <v>35.28</v>
@@ -6126,18 +6152,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215">
         <v>2008</v>
       </c>
       <c r="B215" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C215" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="D215" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E215" s="2">
         <v>33.4</v>
@@ -6152,18 +6178,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216">
         <v>2008</v>
       </c>
       <c r="B216" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C216" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D216" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E216" s="2">
         <v>28.39</v>
@@ -6178,7 +6204,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217">
         <v>2008</v>
       </c>
@@ -6189,7 +6215,7 @@
         <v>44</v>
       </c>
       <c r="D217" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E217" s="2">
         <v>25.85</v>
@@ -6204,18 +6230,18 @@
         <v>31</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218">
         <v>2008</v>
       </c>
       <c r="B218" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C218" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D218" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E218" s="2">
         <v>25.48</v>
@@ -6230,18 +6256,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219">
         <v>2008</v>
       </c>
       <c r="B219" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C219" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D219" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E219" s="2">
         <v>20.41</v>
@@ -6256,18 +6282,18 @@
         <v>20</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220">
         <v>2008</v>
       </c>
       <c r="B220" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C220" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D220" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E220" s="2">
         <v>13.79</v>
@@ -6282,18 +6308,18 @@
         <v>35</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221">
         <v>2008</v>
       </c>
       <c r="B221" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C221" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D221" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E221" s="2">
         <v>7.07</v>
@@ -6308,18 +6334,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222">
         <v>2007</v>
       </c>
       <c r="B222" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C222" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D222" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E222" s="2">
         <v>101.43</v>
@@ -6334,18 +6360,18 @@
         <v>22</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223">
         <v>2007</v>
       </c>
       <c r="B223" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="C223" t="s">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D223" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E223" s="2">
         <v>79.63</v>
@@ -6360,18 +6386,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224">
         <v>2007</v>
       </c>
       <c r="B224" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="C224" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D224" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E224" s="2">
         <v>69.540000000000006</v>
@@ -6386,18 +6412,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225">
         <v>2007</v>
       </c>
       <c r="B225" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="C225" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D225" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E225" s="2">
         <v>52.44</v>
@@ -6412,18 +6438,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226">
         <v>2007</v>
       </c>
       <c r="B226" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C226" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D226" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E226" s="2">
         <v>36.340000000000003</v>
@@ -6438,18 +6464,18 @@
         <v>14</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227">
         <v>2007</v>
       </c>
       <c r="B227" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C227" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="D227" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E227" s="2">
         <v>31.01</v>
@@ -6464,18 +6490,18 @@
         <v>29</v>
       </c>
     </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228">
         <v>2007</v>
       </c>
       <c r="B228" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C228" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="D228" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E228" s="2">
         <v>29.24</v>
@@ -6490,18 +6516,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229">
         <v>2007</v>
       </c>
       <c r="B229" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="C229" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D229" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E229" s="2">
         <v>28.16</v>
@@ -6516,18 +6542,18 @@
         <v>18</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230">
         <v>2007</v>
       </c>
       <c r="B230" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C230" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D230" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E230" s="2">
         <v>24.68</v>
@@ -6542,18 +6568,18 @@
         <v>36</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231">
         <v>2007</v>
       </c>
       <c r="B231" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="C231" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="D231" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E231" s="2">
         <v>20.55</v>
@@ -6568,18 +6594,18 @@
         <v>38</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232">
         <v>2007</v>
       </c>
       <c r="B232" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C232" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D232" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E232" s="2">
         <v>20.41</v>
@@ -6594,18 +6620,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233">
         <v>2007</v>
       </c>
       <c r="B233" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C233" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D233" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E233" s="2">
         <v>19.38</v>
@@ -6620,18 +6646,18 @@
         <v>16</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234">
         <v>2007</v>
       </c>
       <c r="B234" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="C234" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D234" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E234" s="2">
         <v>18.84</v>
@@ -6646,18 +6672,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235">
         <v>2007</v>
       </c>
       <c r="B235" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C235" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="D235" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E235" s="2">
         <v>17.100000000000001</v>
@@ -6672,18 +6698,18 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236">
         <v>2007</v>
       </c>
       <c r="B236" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="C236" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D236" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E236" s="2">
         <v>15.73</v>
@@ -6698,18 +6724,18 @@
         <v>26</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237">
         <v>2007</v>
       </c>
       <c r="B237" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="C237" t="s">
-        <v>28</v>
+        <v>18</v>
       </c>
       <c r="D237" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E237" s="2">
         <v>12.88</v>
@@ -6724,18 +6750,18 @@
         <v>24</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238">
         <v>2007</v>
       </c>
       <c r="B238" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C238" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D238" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E238" s="2">
         <v>11.97</v>
@@ -6750,18 +6776,18 @@
         <v>23</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239">
         <v>2007</v>
       </c>
       <c r="B239" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="C239" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D239" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E239" s="2">
         <v>10.52</v>
@@ -6776,18 +6802,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240">
         <v>2007</v>
       </c>
       <c r="B240" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="C240" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D240" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E240" s="2">
         <v>10.37</v>
@@ -6802,18 +6828,18 @@
         <v>32</v>
       </c>
     </row>
-    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241">
         <v>2007</v>
       </c>
       <c r="B241" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="C241" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="D241" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="E241" s="2">
         <v>7.41</v>
@@ -6828,7 +6854,528 @@
         <v>25</v>
       </c>
     </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>2006</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D242" t="s">
+        <v>7</v>
+      </c>
+      <c r="E242" s="2">
+        <v>104.31</v>
+      </c>
+      <c r="F242" s="7">
+        <v>19</v>
+      </c>
+      <c r="G242" s="7">
+        <v>38.869999999999997</v>
+      </c>
+      <c r="H242" s="8">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>2006</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D243" t="s">
+        <v>7</v>
+      </c>
+      <c r="E243" s="2">
+        <v>69.83</v>
+      </c>
+      <c r="F243" s="7">
+        <v>14</v>
+      </c>
+      <c r="G243" s="7">
+        <v>35.229999999999997</v>
+      </c>
+      <c r="H243" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>2006</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D244" t="s">
+        <v>7</v>
+      </c>
+      <c r="E244" s="2">
+        <v>52.44</v>
+      </c>
+      <c r="F244" s="7">
+        <v>19</v>
+      </c>
+      <c r="G244" s="7">
+        <v>28.5</v>
+      </c>
+      <c r="H244" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>2006</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C245" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D245" t="s">
+        <v>7</v>
+      </c>
+      <c r="E245" s="2">
+        <v>50.23</v>
+      </c>
+      <c r="F245" s="7">
+        <v>29</v>
+      </c>
+      <c r="G245" s="7">
+        <v>21.71</v>
+      </c>
+      <c r="H245" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>2006</v>
+      </c>
+      <c r="B246" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C246" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D246" t="s">
+        <v>7</v>
+      </c>
+      <c r="E246" s="2">
+        <v>41.62</v>
+      </c>
+      <c r="F246" s="7">
+        <v>26</v>
+      </c>
+      <c r="G246" s="7">
+        <v>25.82</v>
+      </c>
+      <c r="H246" s="8">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>2006</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="D247" t="s">
+        <v>7</v>
+      </c>
+      <c r="E247" s="2">
+        <v>37.08</v>
+      </c>
+      <c r="F247" s="7">
+        <v>15</v>
+      </c>
+      <c r="G247" s="7">
+        <v>7.98</v>
+      </c>
+      <c r="H247" s="8">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>2006</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D248" t="s">
+        <v>7</v>
+      </c>
+      <c r="E248" s="2">
+        <v>36.25</v>
+      </c>
+      <c r="F248" s="7">
+        <v>23</v>
+      </c>
+      <c r="G248" s="7">
+        <v>9.01</v>
+      </c>
+      <c r="H248" s="8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>2006</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D249" t="s">
+        <v>7</v>
+      </c>
+      <c r="E249" s="2">
+        <v>24.61</v>
+      </c>
+      <c r="F249" s="7">
+        <v>29</v>
+      </c>
+      <c r="G249" s="7">
+        <v>0.627</v>
+      </c>
+      <c r="H249" s="8">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>2006</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="D250" t="s">
+        <v>7</v>
+      </c>
+      <c r="E250" s="2">
+        <v>18.86</v>
+      </c>
+      <c r="F250" s="7">
+        <v>14</v>
+      </c>
+      <c r="G250" s="7">
+        <v>7.3</v>
+      </c>
+      <c r="H250" s="8">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>2006</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D251" t="s">
+        <v>7</v>
+      </c>
+      <c r="E251" s="2">
+        <v>18.78</v>
+      </c>
+      <c r="F251" s="7">
+        <v>38</v>
+      </c>
+      <c r="G251" s="7">
+        <v>11.29</v>
+      </c>
+      <c r="H251" s="8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>2006</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D252" t="s">
+        <v>7</v>
+      </c>
+      <c r="E252" s="2">
+        <v>17.98</v>
+      </c>
+      <c r="F252" s="7">
+        <v>17</v>
+      </c>
+      <c r="G252" s="7">
+        <v>6.41</v>
+      </c>
+      <c r="H252" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>2006</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="D253" t="s">
+        <v>7</v>
+      </c>
+      <c r="E253" s="2">
+        <v>17.440000000000001</v>
+      </c>
+      <c r="F253" s="7">
+        <v>13</v>
+      </c>
+      <c r="G253" s="7">
+        <v>10.35</v>
+      </c>
+      <c r="H253" s="8">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>2006</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D254" t="s">
+        <v>7</v>
+      </c>
+      <c r="E254" s="2">
+        <v>15.91</v>
+      </c>
+      <c r="F254" s="7">
+        <v>15</v>
+      </c>
+      <c r="G254" s="7">
+        <v>0</v>
+      </c>
+      <c r="H254" s="8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>2006</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D255" t="s">
+        <v>7</v>
+      </c>
+      <c r="E255" s="2">
+        <v>14.22</v>
+      </c>
+      <c r="F255" s="7">
+        <v>15</v>
+      </c>
+      <c r="G255" s="7">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="H255" s="8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>2006</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D256" t="s">
+        <v>7</v>
+      </c>
+      <c r="E256" s="2">
+        <v>10.72</v>
+      </c>
+      <c r="F256" s="7">
+        <v>18</v>
+      </c>
+      <c r="G256" s="7">
+        <v>3.08</v>
+      </c>
+      <c r="H256" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>2006</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="D257" t="s">
+        <v>7</v>
+      </c>
+      <c r="E257" s="2">
+        <v>10.37</v>
+      </c>
+      <c r="F257" s="7">
+        <v>27</v>
+      </c>
+      <c r="G257" s="7">
+        <v>6.51</v>
+      </c>
+      <c r="H257" s="8">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>2006</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="D258" t="s">
+        <v>7</v>
+      </c>
+      <c r="E258" s="2">
+        <v>9.23</v>
+      </c>
+      <c r="F258" s="7">
+        <v>23</v>
+      </c>
+      <c r="G258" s="7">
+        <v>9.06</v>
+      </c>
+      <c r="H258" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>2006</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D259" t="s">
+        <v>7</v>
+      </c>
+      <c r="E259" s="2">
+        <v>7.47</v>
+      </c>
+      <c r="F259" s="7">
+        <v>26</v>
+      </c>
+      <c r="G259" s="7">
+        <v>5.27</v>
+      </c>
+      <c r="H259" s="8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>2006</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D260" t="s">
+        <v>7</v>
+      </c>
+      <c r="E260" s="2">
+        <v>7.07</v>
+      </c>
+      <c r="F260" s="7">
+        <v>13</v>
+      </c>
+      <c r="G260" s="7">
+        <v>0</v>
+      </c>
+      <c r="H260" s="8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>2006</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D261" t="s">
+        <v>7</v>
+      </c>
+      <c r="E261" s="2">
+        <v>6.75</v>
+      </c>
+      <c r="F261" s="7">
+        <v>23</v>
+      </c>
+      <c r="G261" s="7">
+        <v>1.62</v>
+      </c>
+      <c r="H261" s="8">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>